--- a/biology/Botanique/Lowiaceae/Lowiaceae.xlsx
+++ b/biology/Botanique/Lowiaceae/Lowiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Lowiacées regroupe des plantes monocotylédones ; elle comprend 15 espèces du genre Orchidantha (en).
 Ce sont des plantes herbacées, acaules, pérennes, rhizomateuses, sympodiales, aux fleurs rappelant celles des orchidées, des régions tropicales, originaires de Chine et de Malaisie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Lowia, synonyme tardif de Orchidantha (en grec fleur d'orchidée), donné en l'honneur du naturaliste britannique Hugh Low (1824–1905)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Lowia, synonyme tardif de Orchidantha (en grec fleur d'orchidée), donné en l'honneur du naturaliste britannique Hugh Low (1824–1905).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[3], Angiosperm Phylogeny Website                        (16 mai 2010)[4], NCBI  (22 avr. 2010)[5] &amp; DELTA Angio           (22 avr. 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010), Angiosperm Phylogeny Website                        (16 mai 2010), NCBI  (22 avr. 2010) &amp; DELTA Angio           (22 avr. 2010) :
 genre Orchidantha  N.E.Br., Gard. Chron., n.s. (1886)</t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 février 2012)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 février 2012) :
 genre Orchidantha (en)  N.E.Br., Gard. Chron., n.s. (1886)
 Orchidantha borneensis  N.E.Br., Gard. Chron., n.s. (1886)
 Orchidantha chinensis  T.L.Wu (1964)
@@ -597,7 +615,7 @@
 Orchidantha stercorea H.Ð.Tr?n &amp; Škornick.(2010).
 Orchidantha suratii  L.B.Pedersen, J.Linton &amp; A.L.Lamb (2001)
 Orchidantha vietnamica  K.Larsen, Adansonia, n.s. (1973 publ. 1974)
-Selon NCBI  (22 avr. 2010)[5] :
+Selon NCBI  (22 avr. 2010) :
 genre Orchidantha
 Orchidantha borneensis
 Orchidantha cf. borneensis Nagamasu 6689
@@ -639,9 +657,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 février 2012)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 février 2012) :
 Orchidantha calcarea M.R.Hend.(1933)= Orchidantha longiflora  (Scort.) Ridl. (1924)
 Orchidantha longisepala D.Fang (1996) =Orchidantha chinensis var. longisepala (D.Fang) T.L.Wu (1997 publ. 1998).</t>
         </is>
